--- a/firekylin_php/web/upload/1.xlsx
+++ b/firekylin_php/web/upload/1.xlsx
@@ -399,7 +399,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -424,10 +424,16 @@
       <c r="A3">
         <v>5</v>
       </c>
+      <c r="B3">
+        <v>111</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>23</v>
+      </c>
+      <c r="B4">
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -470,217 +476,217 @@
     <row r="1" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <f ca="1">ROUNDUP(RAND()*100,0)</f>
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <f t="shared" ref="A2:A36" ca="1" si="0">ROUNDUP(RAND()*100,0)</f>
-        <v>17</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <f ca="1">ROUNDUP(RAND()*100,0)</f>
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
